--- a/trends/temp/table3.xlsx
+++ b/trends/temp/table3.xlsx
@@ -28,13 +28,13 @@
     <t>proportion drinking</t>
   </si>
   <si>
-    <t>(1.02)</t>
-  </si>
-  <si>
-    <t>(0.85)</t>
-  </si>
-  <si>
-    <t>(0.00296)</t>
+    <t>(0.33)</t>
+  </si>
+  <si>
+    <t>(0.29)</t>
+  </si>
+  <si>
+    <t>(0.00597)</t>
   </si>
 </sst>
 </file>
@@ -420,13 +420,13 @@
         <v>2013</v>
       </c>
       <c r="C2">
-        <v>15.09</v>
+        <v>8.42</v>
       </c>
       <c r="D2">
-        <v>14.26</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="E2">
-        <v>0.050718</v>
+        <v>0.097021</v>
       </c>
     </row>
     <row r="3" spans="1:5">

--- a/trends/temp/table3.xlsx
+++ b/trends/temp/table3.xlsx
@@ -420,7 +420,7 @@
         <v>8.960000000000001</v>
       </c>
       <c r="E2">
-        <v>0.173792</v>
+        <v>0.178368</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -454,7 +454,7 @@
         <v>10.37</v>
       </c>
       <c r="E4">
-        <v>0.138158</v>
+        <v>0.140818</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -488,7 +488,7 @@
         <v>11.75</v>
       </c>
       <c r="E6">
-        <v>0.104373</v>
+        <v>0.105914</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -522,7 +522,7 @@
         <v>11.56</v>
       </c>
       <c r="E8">
-        <v>0.10296</v>
+        <v>0.104334</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -556,7 +556,7 @@
         <v>13</v>
       </c>
       <c r="E10">
-        <v>0.091946</v>
+        <v>0.092754</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -590,7 +590,7 @@
         <v>12.65</v>
       </c>
       <c r="E12">
-        <v>0.09275899999999999</v>
+        <v>0.093781</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -624,7 +624,7 @@
         <v>8.710000000000001</v>
       </c>
       <c r="E14">
-        <v>0.099318</v>
+        <v>0.099868</v>
       </c>
     </row>
     <row r="15" spans="1:5">

--- a/trends/temp/table3.xlsx
+++ b/trends/temp/table3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>year range</t>
   </si>
@@ -28,7 +28,67 @@
     <t>proportion drinking</t>
   </si>
   <si>
-    <t>(nan)</t>
+    <t>(0.65)</t>
+  </si>
+  <si>
+    <t>(0.69)</t>
+  </si>
+  <si>
+    <t>(0.58)</t>
+  </si>
+  <si>
+    <t>(0.3)</t>
+  </si>
+  <si>
+    <t>(0.31)</t>
+  </si>
+  <si>
+    <t>(1.01)</t>
+  </si>
+  <si>
+    <t>(1.34)</t>
+  </si>
+  <si>
+    <t>(0.24)</t>
+  </si>
+  <si>
+    <t>(0.73)</t>
+  </si>
+  <si>
+    <t>(0.18)</t>
+  </si>
+  <si>
+    <t>(0.51)</t>
+  </si>
+  <si>
+    <t>(0.26)</t>
+  </si>
+  <si>
+    <t>(1.12)</t>
+  </si>
+  <si>
+    <t>(1.02)</t>
+  </si>
+  <si>
+    <t>(0.00502)</t>
+  </si>
+  <si>
+    <t>(0.00963)</t>
+  </si>
+  <si>
+    <t>(0.00581)</t>
+  </si>
+  <si>
+    <t>(0.00552)</t>
+  </si>
+  <si>
+    <t>(0.00342)</t>
+  </si>
+  <si>
+    <t>(0.00503)</t>
+  </si>
+  <si>
+    <t>(0.00851)</t>
   </si>
 </sst>
 </file>
@@ -414,13 +474,13 @@
         <v>1983</v>
       </c>
       <c r="C2">
-        <v>9.41</v>
+        <v>9.24</v>
       </c>
       <c r="D2">
-        <v>8.960000000000001</v>
+        <v>8.85</v>
       </c>
       <c r="E2">
-        <v>0.178368</v>
+        <v>0.180291</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -434,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -448,13 +508,13 @@
         <v>1988</v>
       </c>
       <c r="C4">
-        <v>10.07</v>
+        <v>10.28</v>
       </c>
       <c r="D4">
-        <v>10.37</v>
+        <v>10.6</v>
       </c>
       <c r="E4">
-        <v>0.140818</v>
+        <v>0.138936</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -465,13 +525,13 @@
         <v>1992</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -482,13 +542,13 @@
         <v>1993</v>
       </c>
       <c r="C6">
-        <v>11.01</v>
+        <v>10.8</v>
       </c>
       <c r="D6">
-        <v>11.75</v>
+        <v>11.53</v>
       </c>
       <c r="E6">
-        <v>0.105914</v>
+        <v>0.10858</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -499,13 +559,13 @@
         <v>1997</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -516,13 +576,13 @@
         <v>1998</v>
       </c>
       <c r="C8">
-        <v>9.85</v>
+        <v>9.6</v>
       </c>
       <c r="D8">
-        <v>11.56</v>
+        <v>11.32</v>
       </c>
       <c r="E8">
-        <v>0.104334</v>
+        <v>0.106225</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -533,13 +593,13 @@
         <v>2002</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -550,13 +610,13 @@
         <v>2003</v>
       </c>
       <c r="C10">
-        <v>10.52</v>
+        <v>10.74</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>13.23</v>
       </c>
       <c r="E10">
-        <v>0.092754</v>
+        <v>0.091207</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -567,13 +627,13 @@
         <v>2007</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -584,13 +644,13 @@
         <v>2008</v>
       </c>
       <c r="C12">
-        <v>11.1</v>
+        <v>11.63</v>
       </c>
       <c r="D12">
-        <v>12.65</v>
+        <v>13.11</v>
       </c>
       <c r="E12">
-        <v>0.093781</v>
+        <v>0.090977</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -601,13 +661,13 @@
         <v>2012</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -618,13 +678,13 @@
         <v>2013</v>
       </c>
       <c r="C14">
-        <v>8.880000000000001</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="D14">
-        <v>8.710000000000001</v>
+        <v>8.58</v>
       </c>
       <c r="E14">
-        <v>0.099868</v>
+        <v>0.101183</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -635,13 +695,13 @@
         <v>2017</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
